--- a/doc/第２回課題詳細設計書.xlsx
+++ b/doc/第２回課題詳細設計書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tigersWork\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tigersWork\SampleRestaurant\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="69">
   <si>
     <t>詳細設計書</t>
     <rPh sb="0" eb="2">
@@ -350,6 +350,22 @@
   </si>
   <si>
     <t>+sendOff():void</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SampleRestaurantMain</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>+main():void</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>+getInstance():SampleRestaurantMain</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>+start():void</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -739,9 +755,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="top"/>
     </xf>
@@ -791,13 +804,19 @@
       <alignment vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="2" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -818,15 +837,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="2" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="2" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -837,6 +847,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="2" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="2" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="2" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="2" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="2" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -845,16 +864,19 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="2" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
@@ -866,14 +888,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="2" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="2" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="2" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -898,13 +914,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>10886</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1168,13 +1184,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
@@ -1438,13 +1454,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
@@ -1708,13 +1724,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1946,13 +1962,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>-1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>-1</xdr:rowOff>
@@ -2184,13 +2200,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2422,13 +2438,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>179295</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>197224</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>303120</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>43368</xdr:rowOff>
@@ -2484,13 +2500,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>197222</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>43365</xdr:rowOff>
@@ -2546,13 +2562,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>322728</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>251011</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>-1</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>251011</xdr:rowOff>
@@ -2784,13 +2800,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>198905</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>198682</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>44825</xdr:rowOff>
@@ -2846,13 +2862,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>198905</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>198682</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>44825</xdr:rowOff>
@@ -2908,13 +2924,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>251011</xdr:rowOff>
@@ -3146,13 +3162,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>8965</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>197222</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>132790</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>43365</xdr:rowOff>
@@ -3208,13 +3224,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>170328</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>136710</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>315684</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>76198</xdr:rowOff>
@@ -3270,13 +3286,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>162485</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>151280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>314885</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>90768</xdr:rowOff>
@@ -3332,13 +3348,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>233079</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>8961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>100850</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>161361</xdr:rowOff>
@@ -3394,13 +3410,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>161361</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>5600</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -3445,13 +3461,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>8965</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>71718</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>161365</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
@@ -3507,13 +3523,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>161365</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>49</xdr:col>
       <xdr:colOff>316523</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>167485</xdr:rowOff>
@@ -3558,13 +3574,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>239486</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>10886</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>107256</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>163286</xdr:rowOff>
@@ -3620,13 +3636,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>163286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>15528</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -3671,13 +3687,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
+      <xdr:col>45</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>163285</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
@@ -3957,13 +3973,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
+      <xdr:col>44</xdr:col>
       <xdr:colOff>217711</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
+      <xdr:col>45</xdr:col>
       <xdr:colOff>85481</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -4019,13 +4035,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>49</xdr:col>
       <xdr:colOff>315684</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -4305,13 +4321,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>152398</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>91886</xdr:rowOff>
@@ -4367,13 +4383,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>163286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>102775</xdr:rowOff>
@@ -4397,6 +4413,306 @@
         <a:ln w="3175">
           <a:solidFill>
             <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="フリーフォーム 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3472543" y="2503714"/>
+          <a:ext cx="2514600" cy="250372"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 1694329 w 1694329"/>
+            <a:gd name="connsiteY0" fmla="*/ 340658 h 1295701"/>
+            <a:gd name="connsiteX1" fmla="*/ 1353670 w 1694329"/>
+            <a:gd name="connsiteY1" fmla="*/ 197223 h 1295701"/>
+            <a:gd name="connsiteX2" fmla="*/ 1255059 w 1694329"/>
+            <a:gd name="connsiteY2" fmla="*/ 152400 h 1295701"/>
+            <a:gd name="connsiteX3" fmla="*/ 1084729 w 1694329"/>
+            <a:gd name="connsiteY3" fmla="*/ 98611 h 1295701"/>
+            <a:gd name="connsiteX4" fmla="*/ 923365 w 1694329"/>
+            <a:gd name="connsiteY4" fmla="*/ 35858 h 1295701"/>
+            <a:gd name="connsiteX5" fmla="*/ 833718 w 1694329"/>
+            <a:gd name="connsiteY5" fmla="*/ 17929 h 1295701"/>
+            <a:gd name="connsiteX6" fmla="*/ 753035 w 1694329"/>
+            <a:gd name="connsiteY6" fmla="*/ 0 h 1295701"/>
+            <a:gd name="connsiteX7" fmla="*/ 735106 w 1694329"/>
+            <a:gd name="connsiteY7" fmla="*/ 62753 h 1295701"/>
+            <a:gd name="connsiteX8" fmla="*/ 0 w 1694329"/>
+            <a:gd name="connsiteY8" fmla="*/ 1281953 h 1295701"/>
+            <a:gd name="connsiteX0" fmla="*/ 1694329 w 1694329"/>
+            <a:gd name="connsiteY0" fmla="*/ 340658 h 1295701"/>
+            <a:gd name="connsiteX1" fmla="*/ 1255059 w 1694329"/>
+            <a:gd name="connsiteY1" fmla="*/ 152400 h 1295701"/>
+            <a:gd name="connsiteX2" fmla="*/ 1084729 w 1694329"/>
+            <a:gd name="connsiteY2" fmla="*/ 98611 h 1295701"/>
+            <a:gd name="connsiteX3" fmla="*/ 923365 w 1694329"/>
+            <a:gd name="connsiteY3" fmla="*/ 35858 h 1295701"/>
+            <a:gd name="connsiteX4" fmla="*/ 833718 w 1694329"/>
+            <a:gd name="connsiteY4" fmla="*/ 17929 h 1295701"/>
+            <a:gd name="connsiteX5" fmla="*/ 753035 w 1694329"/>
+            <a:gd name="connsiteY5" fmla="*/ 0 h 1295701"/>
+            <a:gd name="connsiteX6" fmla="*/ 735106 w 1694329"/>
+            <a:gd name="connsiteY6" fmla="*/ 62753 h 1295701"/>
+            <a:gd name="connsiteX7" fmla="*/ 0 w 1694329"/>
+            <a:gd name="connsiteY7" fmla="*/ 1281953 h 1295701"/>
+            <a:gd name="connsiteX0" fmla="*/ 1694329 w 1694329"/>
+            <a:gd name="connsiteY0" fmla="*/ 340658 h 1295701"/>
+            <a:gd name="connsiteX1" fmla="*/ 1084729 w 1694329"/>
+            <a:gd name="connsiteY1" fmla="*/ 98611 h 1295701"/>
+            <a:gd name="connsiteX2" fmla="*/ 923365 w 1694329"/>
+            <a:gd name="connsiteY2" fmla="*/ 35858 h 1295701"/>
+            <a:gd name="connsiteX3" fmla="*/ 833718 w 1694329"/>
+            <a:gd name="connsiteY3" fmla="*/ 17929 h 1295701"/>
+            <a:gd name="connsiteX4" fmla="*/ 753035 w 1694329"/>
+            <a:gd name="connsiteY4" fmla="*/ 0 h 1295701"/>
+            <a:gd name="connsiteX5" fmla="*/ 735106 w 1694329"/>
+            <a:gd name="connsiteY5" fmla="*/ 62753 h 1295701"/>
+            <a:gd name="connsiteX6" fmla="*/ 0 w 1694329"/>
+            <a:gd name="connsiteY6" fmla="*/ 1281953 h 1295701"/>
+            <a:gd name="connsiteX0" fmla="*/ 1694329 w 1694329"/>
+            <a:gd name="connsiteY0" fmla="*/ 340658 h 1295701"/>
+            <a:gd name="connsiteX1" fmla="*/ 923365 w 1694329"/>
+            <a:gd name="connsiteY1" fmla="*/ 35858 h 1295701"/>
+            <a:gd name="connsiteX2" fmla="*/ 833718 w 1694329"/>
+            <a:gd name="connsiteY2" fmla="*/ 17929 h 1295701"/>
+            <a:gd name="connsiteX3" fmla="*/ 753035 w 1694329"/>
+            <a:gd name="connsiteY3" fmla="*/ 0 h 1295701"/>
+            <a:gd name="connsiteX4" fmla="*/ 735106 w 1694329"/>
+            <a:gd name="connsiteY4" fmla="*/ 62753 h 1295701"/>
+            <a:gd name="connsiteX5" fmla="*/ 0 w 1694329"/>
+            <a:gd name="connsiteY5" fmla="*/ 1281953 h 1295701"/>
+            <a:gd name="connsiteX0" fmla="*/ 1694329 w 1694329"/>
+            <a:gd name="connsiteY0" fmla="*/ 340658 h 1295701"/>
+            <a:gd name="connsiteX1" fmla="*/ 833718 w 1694329"/>
+            <a:gd name="connsiteY1" fmla="*/ 17929 h 1295701"/>
+            <a:gd name="connsiteX2" fmla="*/ 753035 w 1694329"/>
+            <a:gd name="connsiteY2" fmla="*/ 0 h 1295701"/>
+            <a:gd name="connsiteX3" fmla="*/ 735106 w 1694329"/>
+            <a:gd name="connsiteY3" fmla="*/ 62753 h 1295701"/>
+            <a:gd name="connsiteX4" fmla="*/ 0 w 1694329"/>
+            <a:gd name="connsiteY4" fmla="*/ 1281953 h 1295701"/>
+            <a:gd name="connsiteX0" fmla="*/ 1694329 w 1694329"/>
+            <a:gd name="connsiteY0" fmla="*/ 340658 h 1295701"/>
+            <a:gd name="connsiteX1" fmla="*/ 753035 w 1694329"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 1295701"/>
+            <a:gd name="connsiteX2" fmla="*/ 735106 w 1694329"/>
+            <a:gd name="connsiteY2" fmla="*/ 62753 h 1295701"/>
+            <a:gd name="connsiteX3" fmla="*/ 0 w 1694329"/>
+            <a:gd name="connsiteY3" fmla="*/ 1281953 h 1295701"/>
+            <a:gd name="connsiteX0" fmla="*/ 1694329 w 1694329"/>
+            <a:gd name="connsiteY0" fmla="*/ 340658 h 1281953"/>
+            <a:gd name="connsiteX1" fmla="*/ 753035 w 1694329"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 1281953"/>
+            <a:gd name="connsiteX2" fmla="*/ 0 w 1694329"/>
+            <a:gd name="connsiteY2" fmla="*/ 1281953 h 1281953"/>
+            <a:gd name="connsiteX0" fmla="*/ 1470211 w 1470211"/>
+            <a:gd name="connsiteY0" fmla="*/ 340658 h 2043953"/>
+            <a:gd name="connsiteX1" fmla="*/ 528917 w 1470211"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 2043953"/>
+            <a:gd name="connsiteX2" fmla="*/ 0 w 1470211"/>
+            <a:gd name="connsiteY2" fmla="*/ 2043953 h 2043953"/>
+            <a:gd name="connsiteX0" fmla="*/ 1470211 w 1470211"/>
+            <a:gd name="connsiteY0" fmla="*/ 26894 h 1730189"/>
+            <a:gd name="connsiteX1" fmla="*/ 188258 w 1470211"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 1730189"/>
+            <a:gd name="connsiteX2" fmla="*/ 0 w 1470211"/>
+            <a:gd name="connsiteY2" fmla="*/ 1730189 h 1730189"/>
+            <a:gd name="connsiteX0" fmla="*/ 1470211 w 1470211"/>
+            <a:gd name="connsiteY0" fmla="*/ 26894 h 1730189"/>
+            <a:gd name="connsiteX1" fmla="*/ 188258 w 1470211"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 1730189"/>
+            <a:gd name="connsiteX2" fmla="*/ 71717 w 1470211"/>
+            <a:gd name="connsiteY2" fmla="*/ 1138518 h 1730189"/>
+            <a:gd name="connsiteX3" fmla="*/ 0 w 1470211"/>
+            <a:gd name="connsiteY3" fmla="*/ 1730189 h 1730189"/>
+            <a:gd name="connsiteX0" fmla="*/ 1470211 w 1470211"/>
+            <a:gd name="connsiteY0" fmla="*/ 26894 h 1860999"/>
+            <a:gd name="connsiteX1" fmla="*/ 188258 w 1470211"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 1860999"/>
+            <a:gd name="connsiteX2" fmla="*/ 188258 w 1470211"/>
+            <a:gd name="connsiteY2" fmla="*/ 1757083 h 1860999"/>
+            <a:gd name="connsiteX3" fmla="*/ 0 w 1470211"/>
+            <a:gd name="connsiteY3" fmla="*/ 1730189 h 1860999"/>
+            <a:gd name="connsiteX0" fmla="*/ 1604682 w 1604682"/>
+            <a:gd name="connsiteY0" fmla="*/ 26894 h 1865956"/>
+            <a:gd name="connsiteX1" fmla="*/ 322729 w 1604682"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 1865956"/>
+            <a:gd name="connsiteX2" fmla="*/ 322729 w 1604682"/>
+            <a:gd name="connsiteY2" fmla="*/ 1757083 h 1865956"/>
+            <a:gd name="connsiteX3" fmla="*/ 0 w 1604682"/>
+            <a:gd name="connsiteY3" fmla="*/ 1757083 h 1865956"/>
+            <a:gd name="connsiteX0" fmla="*/ 1604682 w 1604682"/>
+            <a:gd name="connsiteY0" fmla="*/ 26894 h 1757083"/>
+            <a:gd name="connsiteX1" fmla="*/ 322729 w 1604682"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 1757083"/>
+            <a:gd name="connsiteX2" fmla="*/ 322729 w 1604682"/>
+            <a:gd name="connsiteY2" fmla="*/ 1757083 h 1757083"/>
+            <a:gd name="connsiteX3" fmla="*/ 0 w 1604682"/>
+            <a:gd name="connsiteY3" fmla="*/ 1757083 h 1757083"/>
+            <a:gd name="connsiteX0" fmla="*/ 1604682 w 1604682"/>
+            <a:gd name="connsiteY0" fmla="*/ 26894 h 1757083"/>
+            <a:gd name="connsiteX1" fmla="*/ 322729 w 1604682"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 1757083"/>
+            <a:gd name="connsiteX2" fmla="*/ 322729 w 1604682"/>
+            <a:gd name="connsiteY2" fmla="*/ 1757083 h 1757083"/>
+            <a:gd name="connsiteX3" fmla="*/ 0 w 1604682"/>
+            <a:gd name="connsiteY3" fmla="*/ 1757083 h 1757083"/>
+            <a:gd name="connsiteX0" fmla="*/ 1613647 w 1613647"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 1757083"/>
+            <a:gd name="connsiteX1" fmla="*/ 322729 w 1613647"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 1757083"/>
+            <a:gd name="connsiteX2" fmla="*/ 322729 w 1613647"/>
+            <a:gd name="connsiteY2" fmla="*/ 1757083 h 1757083"/>
+            <a:gd name="connsiteX3" fmla="*/ 0 w 1613647"/>
+            <a:gd name="connsiteY3" fmla="*/ 1757083 h 1757083"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="1613647" h="1757083">
+              <a:moveTo>
+                <a:pt x="1613647" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="322729" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="322729" y="1757083"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="1757083"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>174172</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>195942</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>297997</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>42086</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="ひし形 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5856515" y="2699656"/>
+          <a:ext cx="123825" cy="96516"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -4763,26 +5079,26 @@
       <c r="P9" s="12"/>
     </row>
     <row r="11" spans="5:16" x14ac:dyDescent="0.45">
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
     </row>
     <row r="12" spans="5:16" x14ac:dyDescent="0.45">
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4810,139 +5126,139 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.69921875" style="25" customWidth="1"/>
-    <col min="2" max="2" width="7.59765625" style="26" customWidth="1"/>
-    <col min="3" max="3" width="9.296875" style="27" customWidth="1"/>
-    <col min="4" max="4" width="20.3984375" style="28" customWidth="1"/>
-    <col min="5" max="5" width="65.69921875" style="28" customWidth="1"/>
-    <col min="6" max="6" width="12.296875" style="29" customWidth="1"/>
-    <col min="7" max="7" width="20.59765625" style="28" customWidth="1"/>
-    <col min="8" max="8" width="7.19921875" style="19" customWidth="1"/>
-    <col min="9" max="16384" width="8" style="19"/>
+    <col min="1" max="1" width="3.69921875" style="24" customWidth="1"/>
+    <col min="2" max="2" width="7.59765625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="9.296875" style="26" customWidth="1"/>
+    <col min="4" max="4" width="20.3984375" style="27" customWidth="1"/>
+    <col min="5" max="5" width="65.69921875" style="27" customWidth="1"/>
+    <col min="6" max="6" width="12.296875" style="28" customWidth="1"/>
+    <col min="7" max="7" width="20.59765625" style="27" customWidth="1"/>
+    <col min="8" max="8" width="7.19921875" style="18" customWidth="1"/>
+    <col min="9" max="16384" width="8" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="17"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="16"/>
     </row>
     <row r="2" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="22" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="25">
+      <c r="A3" s="24">
         <f t="shared" ref="A3" si="0">ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="26">
         <v>43150</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="28" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="27" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="27" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="27" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="27" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="27" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="27" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="27" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="4:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="27" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="18" spans="4:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="27" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="4:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="27" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="20" spans="4:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="27" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="21" spans="4:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="27" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="22" spans="4:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="27" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="23" spans="4:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D23" s="28" t="s">
+      <c r="D23" s="27" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4959,788 +5275,842 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="G2:AR39"/>
+  <dimension ref="F2:BE39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AE37" sqref="AE37"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.19921875" defaultRowHeight="19.8" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="28" width="4.19921875" style="30"/>
-    <col min="29" max="29" width="4.19921875" style="30" customWidth="1"/>
-    <col min="30" max="16384" width="4.19921875" style="30"/>
+    <col min="1" max="41" width="4.19921875" style="29"/>
+    <col min="42" max="42" width="4.19921875" style="29" customWidth="1"/>
+    <col min="43" max="16384" width="4.19921875" style="29"/>
   </cols>
   <sheetData>
-    <row r="2" spans="7:44" x14ac:dyDescent="0.5">
-      <c r="R2" s="31" t="s">
+    <row r="2" spans="6:57" x14ac:dyDescent="0.5">
+      <c r="AE2" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="33"/>
-      <c r="AL2" s="49" t="s">
+      <c r="AF2" s="51"/>
+      <c r="AG2" s="51"/>
+      <c r="AH2" s="51"/>
+      <c r="AI2" s="51"/>
+      <c r="AJ2" s="51"/>
+      <c r="AK2" s="52"/>
+      <c r="AY2" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="AM2" s="50"/>
-      <c r="AN2" s="50"/>
-      <c r="AO2" s="50"/>
-      <c r="AP2" s="50"/>
-      <c r="AQ2" s="50"/>
-      <c r="AR2" s="51"/>
+      <c r="AZ2" s="33"/>
+      <c r="BA2" s="33"/>
+      <c r="BB2" s="33"/>
+      <c r="BC2" s="33"/>
+      <c r="BD2" s="33"/>
+      <c r="BE2" s="34"/>
     </row>
-    <row r="3" spans="7:44" x14ac:dyDescent="0.5">
-      <c r="Q3" s="30">
+    <row r="3" spans="6:57" x14ac:dyDescent="0.5">
+      <c r="AD3" s="29">
         <v>1</v>
       </c>
-      <c r="R3" s="40" t="s">
+      <c r="AE3" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="42"/>
-      <c r="AL3" s="46" t="s">
+      <c r="AF3" s="53"/>
+      <c r="AG3" s="53"/>
+      <c r="AH3" s="53"/>
+      <c r="AI3" s="53"/>
+      <c r="AJ3" s="53"/>
+      <c r="AK3" s="54"/>
+      <c r="AY3" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="AM3" s="47"/>
-      <c r="AN3" s="47"/>
-      <c r="AO3" s="47"/>
-      <c r="AP3" s="47"/>
-      <c r="AQ3" s="47"/>
-      <c r="AR3" s="48"/>
+      <c r="AZ3" s="48"/>
+      <c r="BA3" s="48"/>
+      <c r="BB3" s="48"/>
+      <c r="BC3" s="48"/>
+      <c r="BD3" s="48"/>
+      <c r="BE3" s="49"/>
     </row>
-    <row r="4" spans="7:44" x14ac:dyDescent="0.5">
-      <c r="R4" s="46"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="47"/>
-      <c r="V4" s="47"/>
-      <c r="W4" s="47"/>
-      <c r="X4" s="48"/>
-      <c r="AL4" s="43" t="s">
+    <row r="4" spans="6:57" x14ac:dyDescent="0.5">
+      <c r="AE4" s="47"/>
+      <c r="AF4" s="48"/>
+      <c r="AG4" s="48"/>
+      <c r="AH4" s="48"/>
+      <c r="AI4" s="48"/>
+      <c r="AJ4" s="48"/>
+      <c r="AK4" s="49"/>
+      <c r="AY4" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="AM4" s="44"/>
-      <c r="AN4" s="44"/>
-      <c r="AO4" s="44"/>
-      <c r="AP4" s="44"/>
-      <c r="AQ4" s="44"/>
-      <c r="AR4" s="45"/>
+      <c r="AZ4" s="42"/>
+      <c r="BA4" s="42"/>
+      <c r="BB4" s="42"/>
+      <c r="BC4" s="42"/>
+      <c r="BD4" s="42"/>
+      <c r="BE4" s="43"/>
     </row>
-    <row r="5" spans="7:44" x14ac:dyDescent="0.5">
-      <c r="R5" s="43" t="s">
+    <row r="5" spans="6:57" x14ac:dyDescent="0.5">
+      <c r="AE5" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="S5" s="44"/>
-      <c r="T5" s="44"/>
-      <c r="U5" s="44"/>
-      <c r="V5" s="44"/>
-      <c r="W5" s="44"/>
-      <c r="X5" s="45"/>
-      <c r="AL5" s="34" t="s">
+      <c r="AF5" s="42"/>
+      <c r="AG5" s="42"/>
+      <c r="AH5" s="42"/>
+      <c r="AI5" s="42"/>
+      <c r="AJ5" s="42"/>
+      <c r="AK5" s="43"/>
+      <c r="AY5" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="AM5" s="35"/>
-      <c r="AN5" s="35"/>
-      <c r="AO5" s="35"/>
-      <c r="AP5" s="35"/>
-      <c r="AQ5" s="35"/>
-      <c r="AR5" s="36"/>
+      <c r="AZ5" s="36"/>
+      <c r="BA5" s="36"/>
+      <c r="BB5" s="36"/>
+      <c r="BC5" s="36"/>
+      <c r="BD5" s="36"/>
+      <c r="BE5" s="37"/>
     </row>
-    <row r="6" spans="7:44" x14ac:dyDescent="0.5">
-      <c r="R6" s="34" t="s">
+    <row r="6" spans="6:57" x14ac:dyDescent="0.5">
+      <c r="AE6" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="S6" s="35"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="35"/>
-      <c r="V6" s="35"/>
-      <c r="W6" s="35"/>
-      <c r="X6" s="36"/>
-      <c r="Y6" s="30">
+      <c r="AF6" s="36"/>
+      <c r="AG6" s="36"/>
+      <c r="AH6" s="36"/>
+      <c r="AI6" s="36"/>
+      <c r="AJ6" s="36"/>
+      <c r="AK6" s="37"/>
+      <c r="AL6" s="29">
         <v>1</v>
       </c>
-      <c r="AL6" s="37" t="s">
+      <c r="AY6" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="AM6" s="38"/>
-      <c r="AN6" s="38"/>
-      <c r="AO6" s="38"/>
-      <c r="AP6" s="38"/>
-      <c r="AQ6" s="38"/>
-      <c r="AR6" s="39"/>
+      <c r="AZ6" s="39"/>
+      <c r="BA6" s="39"/>
+      <c r="BB6" s="39"/>
+      <c r="BC6" s="39"/>
+      <c r="BD6" s="39"/>
+      <c r="BE6" s="40"/>
     </row>
-    <row r="7" spans="7:44" x14ac:dyDescent="0.5">
-      <c r="R7" s="37" t="s">
+    <row r="7" spans="6:57" x14ac:dyDescent="0.5">
+      <c r="AE7" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="S7" s="38"/>
-      <c r="T7" s="38"/>
-      <c r="U7" s="38"/>
-      <c r="V7" s="38"/>
-      <c r="W7" s="38"/>
-      <c r="X7" s="39"/>
+      <c r="AF7" s="39"/>
+      <c r="AG7" s="39"/>
+      <c r="AH7" s="39"/>
+      <c r="AI7" s="39"/>
+      <c r="AJ7" s="39"/>
+      <c r="AK7" s="40"/>
     </row>
-    <row r="8" spans="7:44" x14ac:dyDescent="0.5">
-      <c r="G8" s="31" t="s">
+    <row r="8" spans="6:57" x14ac:dyDescent="0.5">
+      <c r="F8" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="34"/>
+      <c r="T8" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="33"/>
-      <c r="N8" s="30">
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="34"/>
+      <c r="AA8" s="29">
         <v>1</v>
       </c>
-      <c r="AC8" s="49" t="s">
+      <c r="AP8" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="AD8" s="50"/>
-      <c r="AE8" s="50"/>
-      <c r="AF8" s="50"/>
-      <c r="AG8" s="51"/>
-      <c r="AL8" s="49" t="s">
+      <c r="AQ8" s="33"/>
+      <c r="AR8" s="33"/>
+      <c r="AS8" s="33"/>
+      <c r="AT8" s="34"/>
+      <c r="AY8" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="AM8" s="50"/>
-      <c r="AN8" s="50"/>
-      <c r="AO8" s="50"/>
-      <c r="AP8" s="50"/>
-      <c r="AQ8" s="50"/>
-      <c r="AR8" s="51"/>
+      <c r="AZ8" s="33"/>
+      <c r="BA8" s="33"/>
+      <c r="BB8" s="33"/>
+      <c r="BC8" s="33"/>
+      <c r="BD8" s="33"/>
+      <c r="BE8" s="34"/>
     </row>
-    <row r="9" spans="7:44" x14ac:dyDescent="0.5">
-      <c r="G9" s="40" t="s">
+    <row r="9" spans="6:57" x14ac:dyDescent="0.5">
+      <c r="F9" s="44"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="46"/>
+      <c r="T9" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="42"/>
-      <c r="AC9" s="49" t="s">
+      <c r="U9" s="53"/>
+      <c r="V9" s="53"/>
+      <c r="W9" s="53"/>
+      <c r="X9" s="53"/>
+      <c r="Y9" s="54"/>
+      <c r="AP9" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="AD9" s="50"/>
-      <c r="AE9" s="50"/>
-      <c r="AF9" s="50"/>
-      <c r="AG9" s="51"/>
-      <c r="AL9" s="46" t="s">
+      <c r="AQ9" s="33"/>
+      <c r="AR9" s="33"/>
+      <c r="AS9" s="33"/>
+      <c r="AT9" s="34"/>
+      <c r="AY9" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="AM9" s="47"/>
-      <c r="AN9" s="47"/>
-      <c r="AO9" s="47"/>
-      <c r="AP9" s="47"/>
-      <c r="AQ9" s="47"/>
-      <c r="AR9" s="48"/>
+      <c r="AZ9" s="48"/>
+      <c r="BA9" s="48"/>
+      <c r="BB9" s="48"/>
+      <c r="BC9" s="48"/>
+      <c r="BD9" s="48"/>
+      <c r="BE9" s="49"/>
     </row>
-    <row r="10" spans="7:44" x14ac:dyDescent="0.5">
-      <c r="G10" s="43" t="s">
+    <row r="10" spans="6:57" x14ac:dyDescent="0.5">
+      <c r="F10" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="29">
+        <v>1</v>
+      </c>
+      <c r="T10" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="30">
+      <c r="U10" s="42"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="42"/>
+      <c r="X10" s="42"/>
+      <c r="Y10" s="43"/>
+      <c r="Z10" s="29">
         <v>1</v>
       </c>
-      <c r="AC10" s="43" t="s">
+      <c r="AP10" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AD10" s="44"/>
-      <c r="AE10" s="44"/>
-      <c r="AF10" s="44"/>
-      <c r="AG10" s="45"/>
-      <c r="AL10" s="43" t="s">
+      <c r="AQ10" s="42"/>
+      <c r="AR10" s="42"/>
+      <c r="AS10" s="42"/>
+      <c r="AT10" s="43"/>
+      <c r="AY10" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="AM10" s="44"/>
-      <c r="AN10" s="44"/>
-      <c r="AO10" s="44"/>
-      <c r="AP10" s="44"/>
-      <c r="AQ10" s="44"/>
-      <c r="AR10" s="45"/>
+      <c r="AZ10" s="42"/>
+      <c r="BA10" s="42"/>
+      <c r="BB10" s="42"/>
+      <c r="BC10" s="42"/>
+      <c r="BD10" s="42"/>
+      <c r="BE10" s="43"/>
     </row>
-    <row r="11" spans="7:44" x14ac:dyDescent="0.5">
-      <c r="G11" s="34" t="s">
+    <row r="11" spans="6:57" x14ac:dyDescent="0.5">
+      <c r="F11" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="37"/>
+      <c r="S11" s="29">
+        <v>1</v>
+      </c>
+      <c r="T11" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="36"/>
-      <c r="AB11" s="30" t="s">
+      <c r="U11" s="36"/>
+      <c r="V11" s="36"/>
+      <c r="W11" s="36"/>
+      <c r="X11" s="36"/>
+      <c r="Y11" s="37"/>
+      <c r="AO11" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="AC11" s="34" t="s">
+      <c r="AP11" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="AD11" s="35"/>
-      <c r="AE11" s="35"/>
-      <c r="AF11" s="35"/>
-      <c r="AG11" s="36"/>
-      <c r="AL11" s="34" t="s">
+      <c r="AQ11" s="36"/>
+      <c r="AR11" s="36"/>
+      <c r="AS11" s="36"/>
+      <c r="AT11" s="37"/>
+      <c r="AY11" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="AM11" s="35"/>
-      <c r="AN11" s="35"/>
-      <c r="AO11" s="35"/>
-      <c r="AP11" s="35"/>
-      <c r="AQ11" s="35"/>
-      <c r="AR11" s="36"/>
+      <c r="AZ11" s="36"/>
+      <c r="BA11" s="36"/>
+      <c r="BB11" s="36"/>
+      <c r="BC11" s="36"/>
+      <c r="BD11" s="36"/>
+      <c r="BE11" s="37"/>
     </row>
-    <row r="12" spans="7:44" x14ac:dyDescent="0.5">
-      <c r="G12" s="34" t="s">
+    <row r="12" spans="6:57" x14ac:dyDescent="0.5">
+      <c r="F12" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="37"/>
+      <c r="T12" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="30">
+      <c r="U12" s="39"/>
+      <c r="V12" s="39"/>
+      <c r="W12" s="39"/>
+      <c r="X12" s="39"/>
+      <c r="Y12" s="40"/>
+      <c r="Z12" s="29">
         <v>1</v>
       </c>
-      <c r="AB12" s="30" t="s">
+      <c r="AO12" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="AC12" s="37"/>
-      <c r="AD12" s="38"/>
-      <c r="AE12" s="38"/>
-      <c r="AF12" s="38"/>
-      <c r="AG12" s="39"/>
-      <c r="AL12" s="37" t="s">
+      <c r="AP12" s="38"/>
+      <c r="AQ12" s="39"/>
+      <c r="AR12" s="39"/>
+      <c r="AS12" s="39"/>
+      <c r="AT12" s="40"/>
+      <c r="AY12" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="AM12" s="38"/>
-      <c r="AN12" s="38"/>
-      <c r="AO12" s="38"/>
-      <c r="AP12" s="38"/>
-      <c r="AQ12" s="38"/>
-      <c r="AR12" s="39"/>
+      <c r="AZ12" s="39"/>
+      <c r="BA12" s="39"/>
+      <c r="BB12" s="39"/>
+      <c r="BC12" s="39"/>
+      <c r="BD12" s="39"/>
+      <c r="BE12" s="40"/>
     </row>
-    <row r="13" spans="7:44" x14ac:dyDescent="0.5">
-      <c r="G13" s="43" t="s">
+    <row r="13" spans="6:57" x14ac:dyDescent="0.5">
+      <c r="F13" s="38"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="40"/>
+      <c r="T13" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="45"/>
-      <c r="AB13" s="30" t="s">
+      <c r="U13" s="42"/>
+      <c r="V13" s="42"/>
+      <c r="W13" s="42"/>
+      <c r="X13" s="42"/>
+      <c r="Y13" s="43"/>
+      <c r="AO13" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="AC13" s="43"/>
-      <c r="AD13" s="44"/>
-      <c r="AE13" s="44"/>
-      <c r="AF13" s="44"/>
-      <c r="AG13" s="45"/>
+      <c r="AP13" s="41"/>
+      <c r="AQ13" s="42"/>
+      <c r="AR13" s="42"/>
+      <c r="AS13" s="42"/>
+      <c r="AT13" s="43"/>
     </row>
-    <row r="14" spans="7:44" x14ac:dyDescent="0.5">
-      <c r="G14" s="34" t="s">
+    <row r="14" spans="6:57" x14ac:dyDescent="0.5">
+      <c r="T14" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="36"/>
-      <c r="AC14" s="34" t="s">
+      <c r="U14" s="36"/>
+      <c r="V14" s="36"/>
+      <c r="W14" s="36"/>
+      <c r="X14" s="36"/>
+      <c r="Y14" s="37"/>
+      <c r="AP14" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="AD14" s="35"/>
-      <c r="AE14" s="35"/>
-      <c r="AF14" s="35"/>
-      <c r="AG14" s="36"/>
+      <c r="AQ14" s="36"/>
+      <c r="AR14" s="36"/>
+      <c r="AS14" s="36"/>
+      <c r="AT14" s="37"/>
     </row>
-    <row r="15" spans="7:44" x14ac:dyDescent="0.5">
-      <c r="G15" s="34" t="s">
+    <row r="15" spans="6:57" x14ac:dyDescent="0.5">
+      <c r="T15" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="36"/>
-      <c r="AC15" s="34" t="s">
+      <c r="U15" s="36"/>
+      <c r="V15" s="36"/>
+      <c r="W15" s="36"/>
+      <c r="X15" s="36"/>
+      <c r="Y15" s="37"/>
+      <c r="AP15" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="AD15" s="35"/>
-      <c r="AE15" s="35"/>
-      <c r="AF15" s="35"/>
-      <c r="AG15" s="36"/>
+      <c r="AQ15" s="36"/>
+      <c r="AR15" s="36"/>
+      <c r="AS15" s="36"/>
+      <c r="AT15" s="37"/>
     </row>
-    <row r="16" spans="7:44" x14ac:dyDescent="0.5">
-      <c r="G16" s="34" t="s">
+    <row r="16" spans="6:57" x14ac:dyDescent="0.5">
+      <c r="T16" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="36"/>
-      <c r="AC16" s="37"/>
-      <c r="AD16" s="38"/>
-      <c r="AE16" s="38"/>
-      <c r="AF16" s="38"/>
-      <c r="AG16" s="39"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="36"/>
+      <c r="W16" s="36"/>
+      <c r="X16" s="36"/>
+      <c r="Y16" s="37"/>
+      <c r="AP16" s="38"/>
+      <c r="AQ16" s="39"/>
+      <c r="AR16" s="39"/>
+      <c r="AS16" s="39"/>
+      <c r="AT16" s="40"/>
     </row>
-    <row r="17" spans="7:42" x14ac:dyDescent="0.5">
-      <c r="G17" s="37" t="s">
+    <row r="17" spans="20:55" x14ac:dyDescent="0.5">
+      <c r="T17" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="39"/>
+      <c r="U17" s="39"/>
+      <c r="V17" s="39"/>
+      <c r="W17" s="39"/>
+      <c r="X17" s="39"/>
+      <c r="Y17" s="40"/>
     </row>
-    <row r="19" spans="7:42" x14ac:dyDescent="0.5">
-      <c r="R19" s="49" t="s">
+    <row r="19" spans="20:55" x14ac:dyDescent="0.5">
+      <c r="AE19" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="S19" s="50"/>
-      <c r="T19" s="50"/>
-      <c r="U19" s="50"/>
-      <c r="V19" s="50"/>
-      <c r="W19" s="51"/>
+      <c r="AF19" s="33"/>
+      <c r="AG19" s="33"/>
+      <c r="AH19" s="33"/>
+      <c r="AI19" s="33"/>
+      <c r="AJ19" s="34"/>
     </row>
-    <row r="20" spans="7:42" x14ac:dyDescent="0.5">
-      <c r="Q20" s="30">
+    <row r="20" spans="20:55" x14ac:dyDescent="0.5">
+      <c r="AD20" s="29">
         <v>1</v>
       </c>
-      <c r="R20" s="40" t="s">
+      <c r="AE20" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="S20" s="41"/>
-      <c r="T20" s="41"/>
-      <c r="U20" s="41"/>
-      <c r="V20" s="41"/>
-      <c r="W20" s="42"/>
+      <c r="AF20" s="53"/>
+      <c r="AG20" s="53"/>
+      <c r="AH20" s="53"/>
+      <c r="AI20" s="53"/>
+      <c r="AJ20" s="54"/>
     </row>
-    <row r="21" spans="7:42" x14ac:dyDescent="0.5">
-      <c r="R21" s="46" t="s">
+    <row r="21" spans="20:55" x14ac:dyDescent="0.5">
+      <c r="AE21" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="S21" s="47"/>
-      <c r="T21" s="47"/>
-      <c r="U21" s="47"/>
-      <c r="V21" s="47"/>
-      <c r="W21" s="48"/>
-      <c r="AB21" s="49" t="s">
+      <c r="AF21" s="48"/>
+      <c r="AG21" s="48"/>
+      <c r="AH21" s="48"/>
+      <c r="AI21" s="48"/>
+      <c r="AJ21" s="49"/>
+      <c r="AO21" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="AC21" s="50"/>
-      <c r="AD21" s="50"/>
-      <c r="AE21" s="50"/>
-      <c r="AF21" s="50"/>
-      <c r="AG21" s="51"/>
-      <c r="AK21" s="31" t="s">
+      <c r="AP21" s="33"/>
+      <c r="AQ21" s="33"/>
+      <c r="AR21" s="33"/>
+      <c r="AS21" s="33"/>
+      <c r="AT21" s="34"/>
+      <c r="AX21" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="AL21" s="32"/>
-      <c r="AM21" s="32"/>
-      <c r="AN21" s="32"/>
-      <c r="AO21" s="32"/>
-      <c r="AP21" s="33"/>
+      <c r="AY21" s="51"/>
+      <c r="AZ21" s="51"/>
+      <c r="BA21" s="51"/>
+      <c r="BB21" s="51"/>
+      <c r="BC21" s="52"/>
     </row>
-    <row r="22" spans="7:42" x14ac:dyDescent="0.5">
-      <c r="R22" s="34" t="s">
+    <row r="22" spans="20:55" x14ac:dyDescent="0.5">
+      <c r="AE22" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="S22" s="35"/>
-      <c r="T22" s="35"/>
-      <c r="U22" s="35"/>
-      <c r="V22" s="35"/>
-      <c r="W22" s="36"/>
-      <c r="AB22" s="46"/>
-      <c r="AC22" s="47"/>
-      <c r="AD22" s="47"/>
-      <c r="AE22" s="47"/>
-      <c r="AF22" s="47"/>
-      <c r="AG22" s="48"/>
-      <c r="AK22" s="46" t="s">
+      <c r="AF22" s="36"/>
+      <c r="AG22" s="36"/>
+      <c r="AH22" s="36"/>
+      <c r="AI22" s="36"/>
+      <c r="AJ22" s="37"/>
+      <c r="AO22" s="47"/>
+      <c r="AP22" s="48"/>
+      <c r="AQ22" s="48"/>
+      <c r="AR22" s="48"/>
+      <c r="AS22" s="48"/>
+      <c r="AT22" s="49"/>
+      <c r="AX22" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="AL22" s="41"/>
-      <c r="AM22" s="41"/>
-      <c r="AN22" s="41"/>
-      <c r="AO22" s="41"/>
-      <c r="AP22" s="42"/>
+      <c r="AY22" s="53"/>
+      <c r="AZ22" s="53"/>
+      <c r="BA22" s="53"/>
+      <c r="BB22" s="53"/>
+      <c r="BC22" s="54"/>
     </row>
-    <row r="23" spans="7:42" x14ac:dyDescent="0.5">
-      <c r="R23" s="34" t="s">
+    <row r="23" spans="20:55" x14ac:dyDescent="0.5">
+      <c r="AE23" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="S23" s="35"/>
-      <c r="T23" s="35"/>
-      <c r="U23" s="35"/>
-      <c r="V23" s="35"/>
-      <c r="W23" s="36"/>
-      <c r="AB23" s="43"/>
-      <c r="AC23" s="44"/>
-      <c r="AD23" s="44"/>
-      <c r="AE23" s="44"/>
-      <c r="AF23" s="44"/>
-      <c r="AG23" s="45"/>
-      <c r="AK23" s="43" t="s">
+      <c r="AF23" s="36"/>
+      <c r="AG23" s="36"/>
+      <c r="AH23" s="36"/>
+      <c r="AI23" s="36"/>
+      <c r="AJ23" s="37"/>
+      <c r="AO23" s="41"/>
+      <c r="AP23" s="42"/>
+      <c r="AQ23" s="42"/>
+      <c r="AR23" s="42"/>
+      <c r="AS23" s="42"/>
+      <c r="AT23" s="43"/>
+      <c r="AX23" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AL23" s="44"/>
-      <c r="AM23" s="44"/>
-      <c r="AN23" s="44"/>
-      <c r="AO23" s="44"/>
-      <c r="AP23" s="45"/>
+      <c r="AY23" s="42"/>
+      <c r="AZ23" s="42"/>
+      <c r="BA23" s="42"/>
+      <c r="BB23" s="42"/>
+      <c r="BC23" s="43"/>
     </row>
-    <row r="24" spans="7:42" x14ac:dyDescent="0.5">
-      <c r="G24" s="49" t="s">
+    <row r="24" spans="20:55" x14ac:dyDescent="0.5">
+      <c r="T24" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="51"/>
-      <c r="R24" s="37" t="s">
+      <c r="U24" s="33"/>
+      <c r="V24" s="33"/>
+      <c r="W24" s="33"/>
+      <c r="X24" s="33"/>
+      <c r="Y24" s="34"/>
+      <c r="AE24" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="S24" s="38"/>
-      <c r="T24" s="38"/>
-      <c r="U24" s="38"/>
-      <c r="V24" s="38"/>
-      <c r="W24" s="39"/>
-      <c r="AB24" s="34"/>
-      <c r="AC24" s="35"/>
-      <c r="AD24" s="35"/>
-      <c r="AE24" s="35"/>
-      <c r="AF24" s="35"/>
-      <c r="AG24" s="36"/>
-      <c r="AK24" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL24" s="35"/>
-      <c r="AM24" s="35"/>
-      <c r="AN24" s="35"/>
+      <c r="AF24" s="39"/>
+      <c r="AG24" s="39"/>
+      <c r="AH24" s="39"/>
+      <c r="AI24" s="39"/>
+      <c r="AJ24" s="40"/>
       <c r="AO24" s="35"/>
       <c r="AP24" s="36"/>
+      <c r="AQ24" s="36"/>
+      <c r="AR24" s="36"/>
+      <c r="AS24" s="36"/>
+      <c r="AT24" s="37"/>
+      <c r="AX24" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="AY24" s="36"/>
+      <c r="AZ24" s="36"/>
+      <c r="BA24" s="36"/>
+      <c r="BB24" s="36"/>
+      <c r="BC24" s="37"/>
     </row>
-    <row r="25" spans="7:42" x14ac:dyDescent="0.5">
-      <c r="G25" s="56"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="58"/>
-      <c r="AB25" s="34"/>
-      <c r="AC25" s="35"/>
-      <c r="AD25" s="35"/>
-      <c r="AE25" s="35"/>
-      <c r="AF25" s="35"/>
-      <c r="AG25" s="36"/>
-      <c r="AK25" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL25" s="35"/>
-      <c r="AM25" s="35"/>
-      <c r="AN25" s="35"/>
+    <row r="25" spans="20:55" x14ac:dyDescent="0.5">
+      <c r="T25" s="44"/>
+      <c r="U25" s="45"/>
+      <c r="V25" s="45"/>
+      <c r="W25" s="45"/>
+      <c r="X25" s="45"/>
+      <c r="Y25" s="46"/>
       <c r="AO25" s="35"/>
       <c r="AP25" s="36"/>
+      <c r="AQ25" s="36"/>
+      <c r="AR25" s="36"/>
+      <c r="AS25" s="36"/>
+      <c r="AT25" s="37"/>
+      <c r="AX25" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY25" s="36"/>
+      <c r="AZ25" s="36"/>
+      <c r="BA25" s="36"/>
+      <c r="BB25" s="36"/>
+      <c r="BC25" s="37"/>
     </row>
-    <row r="26" spans="7:42" x14ac:dyDescent="0.5">
-      <c r="G26" s="43" t="s">
+    <row r="26" spans="20:55" x14ac:dyDescent="0.5">
+      <c r="T26" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="45"/>
-      <c r="AB26" s="37"/>
-      <c r="AC26" s="38"/>
-      <c r="AD26" s="38"/>
-      <c r="AE26" s="38"/>
-      <c r="AF26" s="38"/>
-      <c r="AG26" s="39"/>
-      <c r="AK26" s="37"/>
-      <c r="AL26" s="38"/>
-      <c r="AM26" s="38"/>
-      <c r="AN26" s="38"/>
+      <c r="U26" s="42"/>
+      <c r="V26" s="42"/>
+      <c r="W26" s="42"/>
+      <c r="X26" s="42"/>
+      <c r="Y26" s="43"/>
       <c r="AO26" s="38"/>
       <c r="AP26" s="39"/>
+      <c r="AQ26" s="39"/>
+      <c r="AR26" s="39"/>
+      <c r="AS26" s="39"/>
+      <c r="AT26" s="40"/>
+      <c r="AX26" s="38"/>
+      <c r="AY26" s="39"/>
+      <c r="AZ26" s="39"/>
+      <c r="BA26" s="39"/>
+      <c r="BB26" s="39"/>
+      <c r="BC26" s="40"/>
     </row>
-    <row r="27" spans="7:42" x14ac:dyDescent="0.5">
-      <c r="G27" s="34" t="s">
+    <row r="27" spans="20:55" x14ac:dyDescent="0.5">
+      <c r="T27" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="36"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="36"/>
+      <c r="X27" s="36"/>
+      <c r="Y27" s="37"/>
     </row>
-    <row r="28" spans="7:42" x14ac:dyDescent="0.5">
-      <c r="G28" s="34" t="s">
+    <row r="28" spans="20:55" x14ac:dyDescent="0.5">
+      <c r="T28" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="36"/>
-      <c r="R28" s="49" t="s">
+      <c r="U28" s="36"/>
+      <c r="V28" s="36"/>
+      <c r="W28" s="36"/>
+      <c r="X28" s="36"/>
+      <c r="Y28" s="37"/>
+      <c r="AE28" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="S28" s="50"/>
-      <c r="T28" s="50"/>
-      <c r="U28" s="50"/>
-      <c r="V28" s="50"/>
-      <c r="W28" s="51"/>
+      <c r="AF28" s="33"/>
+      <c r="AG28" s="33"/>
+      <c r="AH28" s="33"/>
+      <c r="AI28" s="33"/>
+      <c r="AJ28" s="34"/>
     </row>
-    <row r="29" spans="7:42" x14ac:dyDescent="0.5">
-      <c r="G29" s="37" t="s">
+    <row r="29" spans="20:55" x14ac:dyDescent="0.5">
+      <c r="T29" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="39"/>
-      <c r="R29" s="53"/>
-      <c r="S29" s="54"/>
-      <c r="T29" s="54"/>
-      <c r="U29" s="54"/>
-      <c r="V29" s="54"/>
-      <c r="W29" s="55"/>
+      <c r="U29" s="39"/>
+      <c r="V29" s="39"/>
+      <c r="W29" s="39"/>
+      <c r="X29" s="39"/>
+      <c r="Y29" s="40"/>
+      <c r="AE29" s="55"/>
+      <c r="AF29" s="56"/>
+      <c r="AG29" s="56"/>
+      <c r="AH29" s="56"/>
+      <c r="AI29" s="56"/>
+      <c r="AJ29" s="57"/>
     </row>
-    <row r="30" spans="7:42" x14ac:dyDescent="0.5">
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="52"/>
-      <c r="R30" s="37"/>
-      <c r="S30" s="38"/>
-      <c r="T30" s="38"/>
-      <c r="U30" s="38"/>
-      <c r="V30" s="38"/>
-      <c r="W30" s="39"/>
+    <row r="30" spans="20:55" x14ac:dyDescent="0.5">
+      <c r="T30" s="30"/>
+      <c r="U30" s="30"/>
+      <c r="V30" s="30"/>
+      <c r="W30" s="30"/>
+      <c r="X30" s="30"/>
+      <c r="Y30" s="30"/>
+      <c r="AE30" s="38"/>
+      <c r="AF30" s="39"/>
+      <c r="AG30" s="39"/>
+      <c r="AH30" s="39"/>
+      <c r="AI30" s="39"/>
+      <c r="AJ30" s="40"/>
     </row>
-    <row r="32" spans="7:42" x14ac:dyDescent="0.5">
-      <c r="G32" s="49" t="s">
+    <row r="32" spans="20:55" x14ac:dyDescent="0.5">
+      <c r="T32" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="H32" s="50"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="51"/>
+      <c r="U32" s="33"/>
+      <c r="V32" s="33"/>
+      <c r="W32" s="33"/>
+      <c r="X32" s="33"/>
+      <c r="Y32" s="34"/>
     </row>
-    <row r="33" spans="7:25" x14ac:dyDescent="0.5">
-      <c r="G33" s="37"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="39"/>
-      <c r="R33" s="49" t="s">
+    <row r="33" spans="20:38" x14ac:dyDescent="0.5">
+      <c r="T33" s="47"/>
+      <c r="U33" s="48"/>
+      <c r="V33" s="48"/>
+      <c r="W33" s="48"/>
+      <c r="X33" s="48"/>
+      <c r="Y33" s="49"/>
+      <c r="AE33" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="S33" s="50"/>
-      <c r="T33" s="50"/>
-      <c r="U33" s="50"/>
-      <c r="V33" s="50"/>
-      <c r="W33" s="50"/>
-      <c r="X33" s="50"/>
-      <c r="Y33" s="51"/>
+      <c r="AF33" s="33"/>
+      <c r="AG33" s="33"/>
+      <c r="AH33" s="33"/>
+      <c r="AI33" s="33"/>
+      <c r="AJ33" s="33"/>
+      <c r="AK33" s="33"/>
+      <c r="AL33" s="34"/>
     </row>
-    <row r="34" spans="7:25" x14ac:dyDescent="0.5">
-      <c r="G34" s="43" t="s">
+    <row r="34" spans="20:38" x14ac:dyDescent="0.5">
+      <c r="T34" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="H34" s="44"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="44"/>
-      <c r="L34" s="45"/>
-      <c r="R34" s="46" t="s">
+      <c r="U34" s="42"/>
+      <c r="V34" s="42"/>
+      <c r="W34" s="42"/>
+      <c r="X34" s="42"/>
+      <c r="Y34" s="43"/>
+      <c r="AE34" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="S34" s="47"/>
-      <c r="T34" s="47"/>
-      <c r="U34" s="47"/>
-      <c r="V34" s="47"/>
-      <c r="W34" s="47"/>
-      <c r="X34" s="47"/>
-      <c r="Y34" s="48"/>
+      <c r="AF34" s="48"/>
+      <c r="AG34" s="48"/>
+      <c r="AH34" s="48"/>
+      <c r="AI34" s="48"/>
+      <c r="AJ34" s="48"/>
+      <c r="AK34" s="48"/>
+      <c r="AL34" s="49"/>
     </row>
-    <row r="35" spans="7:25" x14ac:dyDescent="0.5">
-      <c r="G35" s="34" t="s">
+    <row r="35" spans="20:38" x14ac:dyDescent="0.5">
+      <c r="T35" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="H35" s="35"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="36"/>
-      <c r="R35" s="34" t="s">
+      <c r="U35" s="36"/>
+      <c r="V35" s="36"/>
+      <c r="W35" s="36"/>
+      <c r="X35" s="36"/>
+      <c r="Y35" s="37"/>
+      <c r="AE35" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="S35" s="35"/>
-      <c r="T35" s="35"/>
-      <c r="U35" s="35"/>
-      <c r="V35" s="35"/>
-      <c r="W35" s="35"/>
-      <c r="X35" s="35"/>
-      <c r="Y35" s="36"/>
+      <c r="AF35" s="36"/>
+      <c r="AG35" s="36"/>
+      <c r="AH35" s="36"/>
+      <c r="AI35" s="36"/>
+      <c r="AJ35" s="36"/>
+      <c r="AK35" s="36"/>
+      <c r="AL35" s="37"/>
     </row>
-    <row r="36" spans="7:25" x14ac:dyDescent="0.5">
-      <c r="G36" s="34" t="s">
+    <row r="36" spans="20:38" x14ac:dyDescent="0.5">
+      <c r="T36" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="36"/>
-      <c r="R36" s="34" t="s">
+      <c r="U36" s="36"/>
+      <c r="V36" s="36"/>
+      <c r="W36" s="36"/>
+      <c r="X36" s="36"/>
+      <c r="Y36" s="37"/>
+      <c r="AE36" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="S36" s="35"/>
-      <c r="T36" s="35"/>
-      <c r="U36" s="35"/>
-      <c r="V36" s="35"/>
-      <c r="W36" s="35"/>
-      <c r="X36" s="35"/>
-      <c r="Y36" s="36"/>
+      <c r="AF36" s="36"/>
+      <c r="AG36" s="36"/>
+      <c r="AH36" s="36"/>
+      <c r="AI36" s="36"/>
+      <c r="AJ36" s="36"/>
+      <c r="AK36" s="36"/>
+      <c r="AL36" s="37"/>
     </row>
-    <row r="37" spans="7:25" x14ac:dyDescent="0.5">
-      <c r="G37" s="34" t="s">
+    <row r="37" spans="20:38" x14ac:dyDescent="0.5">
+      <c r="T37" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="36"/>
-      <c r="R37" s="37"/>
-      <c r="S37" s="38"/>
-      <c r="T37" s="38"/>
-      <c r="U37" s="38"/>
-      <c r="V37" s="38"/>
-      <c r="W37" s="38"/>
-      <c r="X37" s="38"/>
-      <c r="Y37" s="39"/>
+      <c r="U37" s="36"/>
+      <c r="V37" s="36"/>
+      <c r="W37" s="36"/>
+      <c r="X37" s="36"/>
+      <c r="Y37" s="37"/>
+      <c r="AE37" s="38"/>
+      <c r="AF37" s="39"/>
+      <c r="AG37" s="39"/>
+      <c r="AH37" s="39"/>
+      <c r="AI37" s="39"/>
+      <c r="AJ37" s="39"/>
+      <c r="AK37" s="39"/>
+      <c r="AL37" s="40"/>
     </row>
-    <row r="38" spans="7:25" x14ac:dyDescent="0.5">
-      <c r="G38" s="34" t="s">
+    <row r="38" spans="20:38" x14ac:dyDescent="0.5">
+      <c r="T38" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="36"/>
+      <c r="U38" s="36"/>
+      <c r="V38" s="36"/>
+      <c r="W38" s="36"/>
+      <c r="X38" s="36"/>
+      <c r="Y38" s="37"/>
     </row>
-    <row r="39" spans="7:25" x14ac:dyDescent="0.5">
-      <c r="G39" s="37" t="s">
+    <row r="39" spans="20:38" x14ac:dyDescent="0.5">
+      <c r="T39" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="H39" s="38"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="38"/>
-      <c r="K39" s="38"/>
-      <c r="L39" s="39"/>
+      <c r="U39" s="39"/>
+      <c r="V39" s="39"/>
+      <c r="W39" s="39"/>
+      <c r="X39" s="39"/>
+      <c r="Y39" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="75">
-    <mergeCell ref="R33:Y33"/>
-    <mergeCell ref="R36:Y36"/>
-    <mergeCell ref="R37:Y37"/>
-    <mergeCell ref="G10:L10"/>
-    <mergeCell ref="G14:L14"/>
-    <mergeCell ref="G17:L17"/>
-    <mergeCell ref="G25:L25"/>
-    <mergeCell ref="G26:L26"/>
-    <mergeCell ref="G35:L35"/>
-    <mergeCell ref="G38:L38"/>
-    <mergeCell ref="G39:L39"/>
-    <mergeCell ref="R35:Y35"/>
-    <mergeCell ref="R34:Y34"/>
-    <mergeCell ref="AK25:AP25"/>
-    <mergeCell ref="AK26:AP26"/>
-    <mergeCell ref="AB21:AG21"/>
-    <mergeCell ref="AB22:AG22"/>
-    <mergeCell ref="AB23:AG23"/>
-    <mergeCell ref="AB24:AG24"/>
-    <mergeCell ref="AB25:AG25"/>
-    <mergeCell ref="AB26:AG26"/>
-    <mergeCell ref="AK21:AP21"/>
-    <mergeCell ref="AK22:AP22"/>
-    <mergeCell ref="AL8:AR8"/>
-    <mergeCell ref="AL9:AR9"/>
-    <mergeCell ref="AL10:AR10"/>
-    <mergeCell ref="AL11:AR11"/>
-    <mergeCell ref="AL12:AR12"/>
-    <mergeCell ref="AC13:AG13"/>
-    <mergeCell ref="AK23:AP23"/>
-    <mergeCell ref="AK24:AP24"/>
-    <mergeCell ref="G29:L29"/>
-    <mergeCell ref="G37:L37"/>
-    <mergeCell ref="AL3:AR3"/>
-    <mergeCell ref="AL4:AR4"/>
-    <mergeCell ref="AL5:AR5"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="AL6:AR6"/>
-    <mergeCell ref="AL2:AR2"/>
-    <mergeCell ref="R28:W28"/>
-    <mergeCell ref="R29:W29"/>
-    <mergeCell ref="R30:W30"/>
-    <mergeCell ref="G32:L32"/>
-    <mergeCell ref="G33:L33"/>
-    <mergeCell ref="G34:L34"/>
-    <mergeCell ref="G36:L36"/>
-    <mergeCell ref="G24:L24"/>
-    <mergeCell ref="G27:L27"/>
-    <mergeCell ref="G28:L28"/>
-    <mergeCell ref="AC8:AG8"/>
-    <mergeCell ref="AC9:AG9"/>
-    <mergeCell ref="AC10:AG10"/>
-    <mergeCell ref="AC11:AG11"/>
-    <mergeCell ref="AC12:AG12"/>
-    <mergeCell ref="AC14:AG14"/>
-    <mergeCell ref="R2:X2"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="R3:X3"/>
-    <mergeCell ref="R6:X6"/>
-    <mergeCell ref="R7:X7"/>
-    <mergeCell ref="G8:L8"/>
-    <mergeCell ref="G9:L9"/>
-    <mergeCell ref="G12:L12"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="R22:W22"/>
-    <mergeCell ref="R23:W23"/>
-    <mergeCell ref="R24:W24"/>
-    <mergeCell ref="R19:W19"/>
-    <mergeCell ref="R20:W20"/>
-    <mergeCell ref="R21:W21"/>
-    <mergeCell ref="G16:L16"/>
-    <mergeCell ref="AC15:AG15"/>
-    <mergeCell ref="AC16:AG16"/>
-    <mergeCell ref="G15:L15"/>
+  <mergeCells count="81">
+    <mergeCell ref="AP15:AT15"/>
+    <mergeCell ref="AP16:AT16"/>
+    <mergeCell ref="T15:Y15"/>
+    <mergeCell ref="F8:K8"/>
+    <mergeCell ref="F9:K9"/>
+    <mergeCell ref="F10:K10"/>
+    <mergeCell ref="F11:K11"/>
+    <mergeCell ref="F12:K12"/>
+    <mergeCell ref="F13:K13"/>
+    <mergeCell ref="AE7:AK7"/>
+    <mergeCell ref="T8:Y8"/>
+    <mergeCell ref="T9:Y9"/>
+    <mergeCell ref="T12:Y12"/>
+    <mergeCell ref="T11:Y11"/>
+    <mergeCell ref="AY2:BE2"/>
+    <mergeCell ref="AE28:AJ28"/>
+    <mergeCell ref="AE29:AJ29"/>
+    <mergeCell ref="AE30:AJ30"/>
+    <mergeCell ref="T32:Y32"/>
+    <mergeCell ref="T24:Y24"/>
+    <mergeCell ref="T27:Y27"/>
+    <mergeCell ref="T28:Y28"/>
+    <mergeCell ref="AP8:AT8"/>
+    <mergeCell ref="AP9:AT9"/>
+    <mergeCell ref="AP10:AT10"/>
+    <mergeCell ref="AP11:AT11"/>
+    <mergeCell ref="AP12:AT12"/>
+    <mergeCell ref="AP14:AT14"/>
+    <mergeCell ref="AE2:AK2"/>
+    <mergeCell ref="AE4:AK4"/>
+    <mergeCell ref="AY3:BE3"/>
+    <mergeCell ref="AY4:BE4"/>
+    <mergeCell ref="AY5:BE5"/>
+    <mergeCell ref="AE5:AK5"/>
+    <mergeCell ref="AY6:BE6"/>
+    <mergeCell ref="AE3:AK3"/>
+    <mergeCell ref="AE6:AK6"/>
+    <mergeCell ref="AP13:AT13"/>
+    <mergeCell ref="AX23:BC23"/>
+    <mergeCell ref="AX24:BC24"/>
+    <mergeCell ref="T29:Y29"/>
+    <mergeCell ref="T37:Y37"/>
+    <mergeCell ref="T33:Y33"/>
+    <mergeCell ref="T34:Y34"/>
+    <mergeCell ref="T36:Y36"/>
+    <mergeCell ref="T13:Y13"/>
+    <mergeCell ref="AE22:AJ22"/>
+    <mergeCell ref="AE23:AJ23"/>
+    <mergeCell ref="AE24:AJ24"/>
+    <mergeCell ref="AE19:AJ19"/>
+    <mergeCell ref="AE20:AJ20"/>
+    <mergeCell ref="AE21:AJ21"/>
+    <mergeCell ref="T16:Y16"/>
+    <mergeCell ref="AX21:BC21"/>
+    <mergeCell ref="AX22:BC22"/>
+    <mergeCell ref="AY8:BE8"/>
+    <mergeCell ref="AY9:BE9"/>
+    <mergeCell ref="AY10:BE10"/>
+    <mergeCell ref="AY11:BE11"/>
+    <mergeCell ref="AY12:BE12"/>
+    <mergeCell ref="AO21:AT21"/>
+    <mergeCell ref="AO22:AT22"/>
+    <mergeCell ref="AO23:AT23"/>
+    <mergeCell ref="AO24:AT24"/>
+    <mergeCell ref="AO25:AT25"/>
+    <mergeCell ref="T38:Y38"/>
+    <mergeCell ref="T39:Y39"/>
+    <mergeCell ref="AE35:AL35"/>
+    <mergeCell ref="AE34:AL34"/>
+    <mergeCell ref="AX25:BC25"/>
+    <mergeCell ref="AX26:BC26"/>
+    <mergeCell ref="AO26:AT26"/>
+    <mergeCell ref="AE33:AL33"/>
+    <mergeCell ref="AE36:AL36"/>
+    <mergeCell ref="AE37:AL37"/>
+    <mergeCell ref="T10:Y10"/>
+    <mergeCell ref="T14:Y14"/>
+    <mergeCell ref="T17:Y17"/>
+    <mergeCell ref="T25:Y25"/>
+    <mergeCell ref="T26:Y26"/>
+    <mergeCell ref="T35:Y35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
